--- a/Mifos Automation Excels/Loan Product/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Loanproduct.xlsx
@@ -83,139 +83,139 @@
     <t>repaideveryfrequency</t>
   </si>
   <si>
+    <t>Declining Balance</t>
+  </si>
+  <si>
+    <t>repaymentstrategy</t>
+  </si>
+  <si>
+    <t>interestcalculationperiod</t>
+  </si>
+  <si>
+    <t>daysinyear</t>
+  </si>
+  <si>
+    <t>daysinmonth</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>recalculateinterest</t>
+  </si>
+  <si>
+    <t>interestrecalculationcompoundingon</t>
+  </si>
+  <si>
+    <t>advancepaymentsadjustmenttype</t>
+  </si>
+  <si>
+    <t>frequencyforrecalculateoutstandingprincipal</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Reduce number of installments</t>
+  </si>
+  <si>
+    <t>Per month</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan portfolio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer in Suspence </t>
+  </si>
+  <si>
+    <t>Income from interest</t>
+  </si>
+  <si>
+    <t>Income from penalties</t>
+  </si>
+  <si>
+    <t>Income from fees</t>
+  </si>
+  <si>
+    <t>Income from recovery repayments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losses Writtenoff </t>
+  </si>
+  <si>
+    <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>numberofrepaymentsdefault</t>
+  </si>
+  <si>
+    <t>nominalinterestratedefault</t>
+  </si>
+  <si>
+    <t>Equal installments</t>
+  </si>
+  <si>
+    <t>enablemultipledisbursals</t>
+  </si>
+  <si>
+    <t>maximumtranchecount</t>
+  </si>
+  <si>
+    <t>preclosureinterestcalculationrule</t>
+  </si>
+  <si>
+    <t>Calculate till pre closure date</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>charges</t>
+  </si>
+  <si>
+    <t>DisbursementFees-Flat</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>addcharges</t>
+  </si>
+  <si>
+    <t>maximumallowedoutstandingbalancefortranchloan</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>verifyloanproduct</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
+  </si>
+  <si>
+    <t>frequencyintervalforrecalculation</t>
+  </si>
+  <si>
+    <t>frequencydateforrecalculation</t>
+  </si>
+  <si>
+    <t>3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
+  </si>
+  <si>
     <t>interestmethod</t>
-  </si>
-  <si>
-    <t>Declining Balance</t>
-  </si>
-  <si>
-    <t>repaymentstrategy</t>
-  </si>
-  <si>
-    <t>interestcalculationperiod</t>
-  </si>
-  <si>
-    <t>daysinyear</t>
-  </si>
-  <si>
-    <t>daysinmonth</t>
-  </si>
-  <si>
-    <t>Actual</t>
-  </si>
-  <si>
-    <t>recalculateinterest</t>
-  </si>
-  <si>
-    <t>interestrecalculationcompoundingon</t>
-  </si>
-  <si>
-    <t>advancepaymentsadjustmenttype</t>
-  </si>
-  <si>
-    <t>frequencyforrecalculateoutstandingprincipal</t>
-  </si>
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Reduce number of installments</t>
-  </si>
-  <si>
-    <t>Per month</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loan portfolio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfer in Suspence </t>
-  </si>
-  <si>
-    <t>Income from interest</t>
-  </si>
-  <si>
-    <t>Income from penalties</t>
-  </si>
-  <si>
-    <t>Income from fees</t>
-  </si>
-  <si>
-    <t>Income from recovery repayments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losses Writtenoff </t>
-  </si>
-  <si>
-    <t>Overpayment Liability</t>
-  </si>
-  <si>
-    <t>numberofrepaymentsdefault</t>
-  </si>
-  <si>
-    <t>nominalinterestratedefault</t>
-  </si>
-  <si>
-    <t>Equal installments</t>
-  </si>
-  <si>
-    <t>enablemultipledisbursals</t>
-  </si>
-  <si>
-    <t>maximumtranchecount</t>
-  </si>
-  <si>
-    <t>preclosureinterestcalculationrule</t>
-  </si>
-  <si>
-    <t>Calculate till pre closure date</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>charges</t>
-  </si>
-  <si>
-    <t>DisbursementFees-Flat</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>addcharges</t>
-  </si>
-  <si>
-    <t>maximumallowedoutstandingbalancefortranchloan</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>verifyloanproduct</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>US Dollar</t>
-  </si>
-  <si>
-    <t>frequencyintervalforrecalculation</t>
-  </si>
-  <si>
-    <t>frequencydateforrecalculation</t>
-  </si>
-  <si>
-    <t>3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH</t>
-  </si>
-  <si>
-    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,52 +743,52 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>17</v>
@@ -796,39 +796,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="16">
         <v>42005</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>17</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="8">
         <v>1</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
@@ -868,15 +868,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -951,7 +951,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -983,10 +983,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Loan Product/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH-Loanproduct.xlsx
@@ -179,9 +179,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>charges</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>3000-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-FLAT-Regular-CASH</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -676,10 +676,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -823,12 +823,12 @@
         <v>32</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="27" spans="1:2" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="16">
         <v>42005</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="8">
         <v>10000</v>
@@ -868,15 +868,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>17</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>17</v>
@@ -983,10 +983,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
